--- a/Avances/Avance Migracion Sipro.xlsx
+++ b/Avances/Avance Migracion Sipro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\git\Sipro\Avances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eescobedo.DC-DI01\Documents\Code\SiproDesaCSharp\Avances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
@@ -1606,7 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1637,10 +1637,11 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1822,7 +1823,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2086,11 +2087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:D86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
@@ -2170,7 +2171,7 @@
         <v>206</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2184,7 +2185,7 @@
       <c r="C6" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
@@ -3514,7 +3515,7 @@
       <c r="C97" s="4"/>
       <c r="D97">
         <f>COUNTIFS(D3:D94,100%)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -3534,7 +3535,7 @@
       <c r="C99" s="4"/>
       <c r="D99">
         <f>COUNTIFS(D3:D94,0%)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3569,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3576,11 +3577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
@@ -4795,7 +4796,7 @@
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -5965,7 +5966,7 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
@@ -6938,7 +6939,7 @@
       <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -7090,18 +7091,18 @@
       </c>
       <c r="D9" s="9">
         <f>Controllers!D97</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>0.33695652173913043</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="F9" s="9">
         <v>40</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>13.478260869565217</v>
+        <v>13.913043478260869</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -7185,7 +7186,7 @@
       </c>
       <c r="G13" s="12">
         <f>SUM(G4:G12)</f>
-        <v>81.674739090139823</v>
+        <v>82.109521698835465</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
@@ -7194,7 +7195,7 @@
       </c>
       <c r="C16" s="15">
         <f>G13/F13</f>
-        <v>0.38165765929971879</v>
+        <v>0.38368935373287599</v>
       </c>
       <c r="D16" s="15"/>
     </row>

--- a/Avances/Avance Migracion Sipro.xlsx
+++ b/Avances/Avance Migracion Sipro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\git\Sipro\Avances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\git\SiproDesaCSharp\Avances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="504">
   <si>
     <t>Controllers</t>
   </si>
@@ -1525,6 +1525,21 @@
   </si>
   <si>
     <t>peptipo</t>
+  </si>
+  <si>
+    <t>Enner</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Recurso</t>
+  </si>
+  <si>
+    <t>Rafa</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1634,6 +1649,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2086,19 +2113,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:D86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2114,7 +2139,9 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
@@ -2127,7 +2154,7 @@
         <v>296</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -2140,9 +2167,11 @@
         <v>205</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -2155,9 +2184,11 @@
         <v>211</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>0.88</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -2170,9 +2201,11 @@
         <v>206</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2187,7 +2220,9 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -2202,7 +2237,7 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -2217,7 +2252,7 @@
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -2232,7 +2267,9 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -2247,7 +2284,7 @@
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -2262,7 +2299,7 @@
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -2277,7 +2314,7 @@
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -2292,7 +2329,9 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -2307,7 +2346,9 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -2322,7 +2363,9 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -2337,7 +2380,9 @@
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -2352,7 +2397,9 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -2367,7 +2414,9 @@
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -2382,7 +2431,9 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -2397,7 +2448,7 @@
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -2412,7 +2463,7 @@
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -2427,7 +2478,7 @@
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -2442,7 +2493,9 @@
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -2457,7 +2510,7 @@
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -2472,7 +2525,9 @@
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -2487,7 +2542,9 @@
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -2502,7 +2559,7 @@
       <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -2517,7 +2574,7 @@
       <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -2532,7 +2589,7 @@
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -2547,7 +2604,7 @@
       <c r="D30" s="3">
         <v>0</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -2562,7 +2619,7 @@
       <c r="D31" s="3">
         <v>0</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -2577,7 +2634,9 @@
       <c r="D32" s="3">
         <v>0.75</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -2592,7 +2651,7 @@
       <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -2607,7 +2666,7 @@
       <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -2622,7 +2681,7 @@
       <c r="D35" s="3">
         <v>0</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -2637,7 +2696,7 @@
       <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -2652,7 +2711,7 @@
       <c r="D37" s="3">
         <v>0</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -2667,7 +2726,9 @@
       <c r="D38" s="3">
         <v>1</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -2682,7 +2743,9 @@
       <c r="D39" s="3">
         <v>1</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -2697,7 +2760,7 @@
       <c r="D40" s="3">
         <v>0</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -2712,7 +2775,7 @@
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -2727,7 +2790,7 @@
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -2742,7 +2805,7 @@
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -2757,7 +2820,7 @@
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -2772,7 +2835,7 @@
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -2787,7 +2850,7 @@
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="15"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -2802,7 +2865,7 @@
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -2817,7 +2880,7 @@
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -2832,7 +2895,7 @@
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -2847,7 +2910,7 @@
       <c r="D50" s="3">
         <v>0</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -2862,7 +2925,9 @@
       <c r="D51" s="3">
         <v>1</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -2877,7 +2942,7 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -2892,7 +2957,9 @@
       <c r="D53" s="3">
         <v>1</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -2907,7 +2974,7 @@
       <c r="D54" s="3">
         <v>0</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -2922,7 +2989,7 @@
       <c r="D55" s="3">
         <v>0</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -2937,7 +3004,7 @@
       <c r="D56" s="3">
         <v>0</v>
       </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="15"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -2952,7 +3019,9 @@
       <c r="D57" s="3">
         <v>1</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E57" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2967,7 +3036,7 @@
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="15"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -2982,7 +3051,7 @@
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3"/>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -2997,7 +3066,9 @@
       <c r="D60" s="3">
         <v>1</v>
       </c>
-      <c r="E60" s="3"/>
+      <c r="E60" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -3012,7 +3083,9 @@
       <c r="D61" s="3">
         <v>1</v>
       </c>
-      <c r="E61" s="3"/>
+      <c r="E61" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -3027,7 +3100,9 @@
       <c r="D62" s="3">
         <v>1</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -3042,7 +3117,9 @@
       <c r="D63" s="3">
         <v>1</v>
       </c>
-      <c r="E63" s="3"/>
+      <c r="E63" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -3057,7 +3134,7 @@
       <c r="D64" s="3">
         <v>0</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
@@ -3072,7 +3149,7 @@
       <c r="D65" s="3">
         <v>0</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -3087,7 +3164,7 @@
       <c r="D66" s="3">
         <v>0</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="15"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -3102,7 +3179,9 @@
       <c r="D67" s="3">
         <v>1</v>
       </c>
-      <c r="E67" s="3"/>
+      <c r="E67" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
@@ -3117,7 +3196,9 @@
       <c r="D68" s="3">
         <v>1</v>
       </c>
-      <c r="E68" s="3"/>
+      <c r="E68" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
@@ -3132,7 +3213,9 @@
       <c r="D69" s="3">
         <v>1</v>
       </c>
-      <c r="E69" s="3"/>
+      <c r="E69" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
@@ -3147,7 +3230,9 @@
       <c r="D70" s="3">
         <v>1</v>
       </c>
-      <c r="E70" s="3"/>
+      <c r="E70" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -3162,7 +3247,9 @@
       <c r="D71" s="3">
         <v>1</v>
       </c>
-      <c r="E71" s="3"/>
+      <c r="E71" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -3177,7 +3264,7 @@
       <c r="D72" s="3">
         <v>0</v>
       </c>
-      <c r="E72" s="3"/>
+      <c r="E72" s="15"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
@@ -3192,7 +3279,7 @@
       <c r="D73" s="3">
         <v>0</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
@@ -3207,7 +3294,7 @@
       <c r="D74" s="3">
         <v>0</v>
       </c>
-      <c r="E74" s="3"/>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -3222,7 +3309,7 @@
       <c r="D75" s="3">
         <v>0</v>
       </c>
-      <c r="E75" s="3"/>
+      <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
@@ -3237,7 +3324,7 @@
       <c r="D76" s="3">
         <v>0</v>
       </c>
-      <c r="E76" s="3"/>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
@@ -3252,7 +3339,7 @@
       <c r="D77" s="3">
         <v>0</v>
       </c>
-      <c r="E77" s="3"/>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
@@ -3267,7 +3354,7 @@
       <c r="D78" s="3">
         <v>0</v>
       </c>
-      <c r="E78" s="3"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
@@ -3282,7 +3369,7 @@
       <c r="D79" s="3">
         <v>0</v>
       </c>
-      <c r="E79" s="3"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
@@ -3297,7 +3384,7 @@
       <c r="D80" s="3">
         <v>0</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
@@ -3312,7 +3399,7 @@
       <c r="D81" s="3">
         <v>0</v>
       </c>
-      <c r="E81" s="3"/>
+      <c r="E81" s="15"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
@@ -3327,7 +3414,7 @@
       <c r="D82" s="3">
         <v>0</v>
       </c>
-      <c r="E82" s="3"/>
+      <c r="E82" s="15"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
@@ -3342,7 +3429,9 @@
       <c r="D83" s="3">
         <v>1</v>
       </c>
-      <c r="E83" s="3"/>
+      <c r="E83" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -3357,7 +3446,9 @@
       <c r="D84" s="3">
         <v>1</v>
       </c>
-      <c r="E84" s="3"/>
+      <c r="E84" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -3372,7 +3463,9 @@
       <c r="D85" s="3">
         <v>1</v>
       </c>
-      <c r="E85" s="3"/>
+      <c r="E85" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
@@ -3387,7 +3480,9 @@
       <c r="D86" s="3">
         <v>0.05</v>
       </c>
-      <c r="E86" s="3"/>
+      <c r="E86" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
@@ -3400,9 +3495,11 @@
         <v>288</v>
       </c>
       <c r="D87" s="3">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -3415,9 +3512,11 @@
         <v>289</v>
       </c>
       <c r="D88" s="3">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
@@ -3432,7 +3531,7 @@
       <c r="D89" s="3">
         <v>0</v>
       </c>
-      <c r="E89" s="3"/>
+      <c r="E89" s="15"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
@@ -3447,7 +3546,7 @@
       <c r="D90" s="3">
         <v>0</v>
       </c>
-      <c r="E90" s="3"/>
+      <c r="E90" s="15"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
@@ -3462,7 +3561,9 @@
       <c r="D91" s="3">
         <v>1</v>
       </c>
-      <c r="E91" s="3"/>
+      <c r="E91" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
@@ -3477,7 +3578,9 @@
       <c r="D92" s="3">
         <v>1</v>
       </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
@@ -3492,6 +3595,7 @@
       <c r="D93" s="3">
         <v>0</v>
       </c>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
@@ -3506,38 +3610,46 @@
       <c r="D94" s="3">
         <v>0.16</v>
       </c>
+      <c r="E94" s="6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="4"/>
+      <c r="C97" s="18"/>
       <c r="D97">
         <f>COUNTIFS(D3:D94,100%)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C98" s="4"/>
+      <c r="C98" s="18"/>
       <c r="D98">
         <f>COUNTIFS(D3:D94,"&gt;"&amp; 0%,D3:D94,"&lt;" &amp; 100%)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C99" s="4"/>
+      <c r="C99" s="18"/>
       <c r="D99">
         <f>COUNTIFS(D3:D94,0%)</f>
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+  </mergeCells>
   <conditionalFormatting sqref="D3">
     <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>0</formula>
@@ -3574,10 +3686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3585,9 +3697,10 @@
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -3597,8 +3710,11 @@
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3606,10 +3722,13 @@
         <v>31</v>
       </c>
       <c r="C2" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3617,10 +3736,13 @@
         <v>32</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3630,8 +3752,11 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3639,10 +3764,13 @@
         <v>34</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3652,8 +3780,11 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3664,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3675,7 +3806,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3685,8 +3816,11 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3696,8 +3830,11 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3708,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3718,8 +3855,11 @@
       <c r="C12" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3729,8 +3869,11 @@
       <c r="C13" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3740,8 +3883,11 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3751,8 +3897,11 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3762,8 +3911,11 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3773,8 +3925,11 @@
       <c r="C17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3784,8 +3939,11 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3795,8 +3953,11 @@
       <c r="C19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3806,8 +3967,11 @@
       <c r="C20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3817,8 +3981,11 @@
       <c r="C21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3829,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3840,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3851,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3861,8 +4028,11 @@
       <c r="C25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3872,8 +4042,11 @@
       <c r="C26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3883,8 +4056,11 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3895,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3906,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3916,8 +4092,11 @@
       <c r="C30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3928,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3939,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3950,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3961,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3972,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3983,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3994,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4005,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4015,8 +4194,11 @@
       <c r="C39" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4026,8 +4208,11 @@
       <c r="C40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4037,8 +4222,11 @@
       <c r="C41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4049,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4060,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4071,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4081,8 +4269,11 @@
       <c r="C45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4092,8 +4283,11 @@
       <c r="C46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4103,8 +4297,11 @@
       <c r="C47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4114,8 +4311,11 @@
       <c r="C48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4125,8 +4325,11 @@
       <c r="C49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4136,8 +4339,11 @@
       <c r="C50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4147,8 +4353,11 @@
       <c r="C51" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4158,8 +4367,11 @@
       <c r="C52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4169,8 +4381,11 @@
       <c r="C53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4181,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4191,8 +4406,11 @@
       <c r="C55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4203,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4213,8 +4431,11 @@
       <c r="C57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4224,8 +4445,11 @@
       <c r="C58" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -4235,8 +4459,11 @@
       <c r="C59" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -4246,8 +4473,11 @@
       <c r="C60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -4257,8 +4487,11 @@
       <c r="C61" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4268,8 +4501,11 @@
       <c r="C62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -4280,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -4291,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -4302,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4313,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -4324,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -4335,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -4346,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -4356,8 +4592,11 @@
       <c r="C70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -4367,8 +4606,11 @@
       <c r="C71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -4378,8 +4620,11 @@
       <c r="C72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -4389,8 +4634,11 @@
       <c r="C73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4400,8 +4648,11 @@
       <c r="C74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -4412,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -4422,8 +4673,11 @@
       <c r="C76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4433,8 +4687,11 @@
       <c r="C77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4445,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4456,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4467,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -4478,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4489,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -4500,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -4511,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -4522,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -4533,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -4543,8 +4800,11 @@
       <c r="C87" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -4555,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -4566,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -4576,8 +4836,11 @@
       <c r="C90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -4587,8 +4850,11 @@
       <c r="C91" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -4598,8 +4864,11 @@
       <c r="C92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -4609,8 +4878,11 @@
       <c r="C93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -4620,8 +4892,11 @@
       <c r="C94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -4629,10 +4904,13 @@
         <v>106</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -4642,8 +4920,11 @@
       <c r="C96" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -4651,10 +4932,13 @@
         <v>108</v>
       </c>
       <c r="C97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -4662,10 +4946,13 @@
         <v>109</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -4673,10 +4960,13 @@
         <v>110</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -4687,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -4697,8 +4987,11 @@
       <c r="C101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -4708,8 +5001,11 @@
       <c r="C102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -4719,8 +5015,11 @@
       <c r="C103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -4731,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -4741,32 +5040,35 @@
       <c r="C105" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
+      <c r="D105" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C108">
         <f>COUNTIFS(C2:C105,100%)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C109">
         <f>COUNTIFS(C2:C105,"&gt;"&amp; 0%,C2:C105,"&lt;" &amp; 100%)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C110">
         <f>COUNTIFS(C2:C105,0%)</f>
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4789,19 +5091,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B103" sqref="B103:B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -4811,8 +5114,11 @@
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4822,8 +5128,11 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4833,8 +5142,11 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4844,8 +5156,11 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4855,8 +5170,11 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4866,8 +5184,11 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4877,8 +5198,11 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4888,8 +5212,11 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4899,8 +5226,11 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4910,8 +5240,11 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4921,8 +5254,11 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4932,8 +5268,11 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4943,8 +5282,11 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -4954,8 +5296,11 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4965,8 +5310,11 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4976,8 +5324,11 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4987,8 +5338,11 @@
       <c r="C17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -4998,8 +5352,11 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5009,8 +5366,11 @@
       <c r="C19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5020,8 +5380,11 @@
       <c r="C20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5031,8 +5394,11 @@
       <c r="C21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5042,8 +5408,11 @@
       <c r="C22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -5053,8 +5422,11 @@
       <c r="C23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -5064,8 +5436,11 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -5075,8 +5450,11 @@
       <c r="C25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -5086,8 +5464,11 @@
       <c r="C26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -5097,8 +5478,11 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -5108,8 +5492,11 @@
       <c r="C28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -5119,8 +5506,11 @@
       <c r="C29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5130,8 +5520,11 @@
       <c r="C30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5141,8 +5534,11 @@
       <c r="C31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5152,8 +5548,11 @@
       <c r="C32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5163,8 +5562,11 @@
       <c r="C33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5174,8 +5576,11 @@
       <c r="C34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5185,8 +5590,11 @@
       <c r="C35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5196,8 +5604,11 @@
       <c r="C36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5207,8 +5618,11 @@
       <c r="C37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5218,8 +5632,11 @@
       <c r="C38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5229,8 +5646,11 @@
       <c r="C39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5240,8 +5660,11 @@
       <c r="C40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5251,8 +5674,11 @@
       <c r="C41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5262,8 +5688,11 @@
       <c r="C42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5273,8 +5702,11 @@
       <c r="C43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5284,8 +5716,11 @@
       <c r="C44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5295,8 +5730,11 @@
       <c r="C45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5306,8 +5744,11 @@
       <c r="C46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5317,8 +5758,11 @@
       <c r="C47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5328,8 +5772,11 @@
       <c r="C48" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5339,8 +5786,11 @@
       <c r="C49" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5350,8 +5800,11 @@
       <c r="C50" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5361,8 +5814,11 @@
       <c r="C51" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5372,8 +5828,11 @@
       <c r="C52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -5383,8 +5842,11 @@
       <c r="C53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5394,8 +5856,11 @@
       <c r="C54" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5405,8 +5870,11 @@
       <c r="C55" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5416,8 +5884,11 @@
       <c r="C56" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5427,8 +5898,11 @@
       <c r="C57" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5438,8 +5912,11 @@
       <c r="C58" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5449,8 +5926,11 @@
       <c r="C59" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5460,8 +5940,11 @@
       <c r="C60" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5471,8 +5954,11 @@
       <c r="C61" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5482,8 +5968,11 @@
       <c r="C62" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5493,8 +5982,11 @@
       <c r="C63" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5504,8 +5996,11 @@
       <c r="C64" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5515,8 +6010,11 @@
       <c r="C65" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5526,8 +6024,11 @@
       <c r="C66" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -5537,8 +6038,11 @@
       <c r="C67" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -5548,8 +6052,11 @@
       <c r="C68" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -5559,8 +6066,11 @@
       <c r="C69" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -5570,8 +6080,11 @@
       <c r="C70" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -5581,8 +6094,11 @@
       <c r="C71" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -5592,8 +6108,11 @@
       <c r="C72" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -5603,8 +6122,11 @@
       <c r="C73" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -5614,8 +6136,11 @@
       <c r="C74" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -5625,8 +6150,11 @@
       <c r="C75" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -5636,8 +6164,11 @@
       <c r="C76" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -5647,8 +6178,11 @@
       <c r="C77" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -5658,8 +6192,11 @@
       <c r="C78" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -5669,8 +6206,11 @@
       <c r="C79" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5680,8 +6220,11 @@
       <c r="C80" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5691,8 +6234,11 @@
       <c r="C81" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5702,8 +6248,11 @@
       <c r="C82" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5713,8 +6262,11 @@
       <c r="C83" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5724,8 +6276,11 @@
       <c r="C84" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5735,8 +6290,11 @@
       <c r="C85" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5746,8 +6304,11 @@
       <c r="C86" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -5757,8 +6318,11 @@
       <c r="C87" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -5768,8 +6332,11 @@
       <c r="C88" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -5779,8 +6346,11 @@
       <c r="C89" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -5790,8 +6360,11 @@
       <c r="C90" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -5801,8 +6374,11 @@
       <c r="C91" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -5812,8 +6388,11 @@
       <c r="C92" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -5823,8 +6402,11 @@
       <c r="C93" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -5834,8 +6416,11 @@
       <c r="C94" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -5845,8 +6430,11 @@
       <c r="C95" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -5856,8 +6444,11 @@
       <c r="C96" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -5867,8 +6458,11 @@
       <c r="C97" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -5878,8 +6472,11 @@
       <c r="C98" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -5889,8 +6486,11 @@
       <c r="C99" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -5900,8 +6500,11 @@
       <c r="C100" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -5911,9 +6514,12 @@
       <c r="C101" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="4" t="s">
+      <c r="D101" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C103">
@@ -5921,8 +6527,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C104">
@@ -5930,8 +6536,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C105">
@@ -5959,10 +6565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,9 +6576,10 @@
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -5982,8 +6589,11 @@
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5993,8 +6603,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -6004,8 +6617,11 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -6015,8 +6631,11 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -6027,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6038,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -6049,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -6059,8 +6678,11 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -6070,8 +6692,11 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -6081,8 +6706,11 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -6093,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -6104,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -6112,10 +6740,13 @@
         <v>428</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -6123,10 +6754,13 @@
         <v>429</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -6137,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -6148,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -6159,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -6170,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -6181,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -6192,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -6203,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -6214,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -6224,8 +6858,11 @@
       <c r="C23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -6235,8 +6872,11 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -6247,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -6258,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -6268,8 +6908,11 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -6280,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -6291,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -6302,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -6313,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -6324,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -6334,8 +6977,11 @@
       <c r="C33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -6345,8 +6991,11 @@
       <c r="C34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -6356,8 +7005,11 @@
       <c r="C35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -6368,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -6378,8 +7030,11 @@
       <c r="C37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -6389,8 +7044,11 @@
       <c r="C38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -6398,10 +7056,13 @@
         <v>452</v>
       </c>
       <c r="C39" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -6411,8 +7072,11 @@
       <c r="C40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6422,8 +7086,11 @@
       <c r="C41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -6434,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -6445,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -6456,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -6467,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -6478,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -6489,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6676,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6687,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6698,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6709,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6720,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6731,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6742,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6753,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6764,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -6774,8 +7441,11 @@
       <c r="C73" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -6785,8 +7455,11 @@
       <c r="C74" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6796,8 +7469,11 @@
       <c r="C75" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -6805,10 +7481,13 @@
         <v>470</v>
       </c>
       <c r="C76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -6816,10 +7495,13 @@
         <v>471</v>
       </c>
       <c r="C77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -6827,10 +7509,13 @@
         <v>472</v>
       </c>
       <c r="C78" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -6841,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -6886,16 +7571,16 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C86">
         <f>COUNTIFS(C2:C83,100%)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C87">
@@ -6904,12 +7589,12 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C88">
         <f>COUNTIFS(C2:C83,0%)</f>
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6934,8 +7619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7066,18 +7751,18 @@
       </c>
       <c r="D8" s="9">
         <f>Daos!C108</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>0.42307692307692307</v>
+        <v>0.45192307692307693</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>8.4615384615384617</v>
+        <v>9.0384615384615383</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -7090,18 +7775,18 @@
       </c>
       <c r="D9" s="9">
         <f>Controllers!D97</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>0.33695652173913043</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="F9" s="9">
         <v>40</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>13.478260869565217</v>
+        <v>13.913043478260869</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -7134,18 +7819,18 @@
         <v>83</v>
       </c>
       <c r="D11" s="9">
-        <v>17.8</v>
+        <v>23</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
-        <v>0.21445783132530122</v>
+        <v>0.27710843373493976</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>25.734939759036145</v>
+        <v>33.253012048192772</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -7185,18 +7870,18 @@
       </c>
       <c r="G13" s="12">
         <f>SUM(G4:G12)</f>
-        <v>81.674739090139823</v>
+        <v>90.20451706491518</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B16" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="19">
         <f>G13/F13</f>
-        <v>0.38165765929971879</v>
-      </c>
-      <c r="D16" s="15"/>
+        <v>0.42151643488278123</v>
+      </c>
+      <c r="D16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Avances/Avance Migracion Sipro.xlsx
+++ b/Avances/Avance Migracion Sipro.xlsx
@@ -1606,7 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1634,10 +1634,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2087,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2142,7 @@
         <v>205</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -2185,7 +2186,7 @@
       <c r="C6" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
@@ -3515,7 +3516,7 @@
       <c r="C97" s="4"/>
       <c r="D97">
         <f>COUNTIFS(D3:D94,100%)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -3535,7 +3536,7 @@
       <c r="C99" s="4"/>
       <c r="D99">
         <f>COUNTIFS(D3:D94,0%)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3575,10 +3576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,9 +3587,10 @@
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3607,10 +3609,17 @@
         <v>31</v>
       </c>
       <c r="C2" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.31</v>
+      </c>
+      <c r="E2">
+        <f>10/32</f>
+        <v>0.3125</v>
+      </c>
+      <c r="F2" s="17">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3621,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3629,10 +3638,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3640,10 +3649,10 @@
         <v>34</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3654,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3665,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3676,7 +3685,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3687,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3698,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3709,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3720,7 +3729,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3731,7 +3740,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3742,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3753,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4749,7 +4758,7 @@
       </c>
       <c r="C108">
         <f>COUNTIFS(C2:C105,100%)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -4767,7 +4776,7 @@
       </c>
       <c r="C110">
         <f>COUNTIFS(C2:C105,0%)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7067,18 +7076,18 @@
       </c>
       <c r="D8" s="9">
         <f>Daos!C108</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>0.42307692307692307</v>
+        <v>0.44230769230769229</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>8.4615384615384617</v>
+        <v>8.8461538461538467</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -7091,18 +7100,18 @@
       </c>
       <c r="D9" s="9">
         <f>Controllers!D97</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>0.34782608695652173</v>
+        <v>0.35869565217391303</v>
       </c>
       <c r="F9" s="9">
         <v>40</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>13.913043478260869</v>
+        <v>14.347826086956522</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -7186,18 +7195,18 @@
       </c>
       <c r="G13" s="12">
         <f>SUM(G4:G12)</f>
-        <v>82.109521698835465</v>
+        <v>82.928919692146508</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B16" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="16">
         <f>G13/F13</f>
-        <v>0.38368935373287599</v>
-      </c>
-      <c r="D16" s="15"/>
+        <v>0.38751831631844164</v>
+      </c>
+      <c r="D16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Avances/Avance Migracion Sipro.xlsx
+++ b/Avances/Avance Migracion Sipro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="504">
   <si>
     <t>Controllers</t>
   </si>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,9 +2312,11 @@
         <v>214</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3631,7 +3633,7 @@
       <c r="C98" s="18"/>
       <c r="D98">
         <f>COUNTIFS(D3:D94,"&gt;"&amp; 0%,D3:D94,"&lt;" &amp; 100%)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
@@ -3641,7 +3643,7 @@
       <c r="C99" s="18"/>
       <c r="D99">
         <f>COUNTIFS(D3:D94,0%)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -7619,7 +7621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Avances/Avance Migracion Sipro.xlsx
+++ b/Avances/Avance Migracion Sipro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="504">
   <si>
     <t>Controllers</t>
   </si>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,7 +2167,7 @@
         <v>205</v>
       </c>
       <c r="D3" s="3">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>499</v>
@@ -2184,7 +2184,7 @@
         <v>211</v>
       </c>
       <c r="D4" s="3">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>500</v>
@@ -2312,7 +2312,7 @@
         <v>214</v>
       </c>
       <c r="D12" s="3">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>501</v>
@@ -3356,7 +3356,9 @@
       <c r="D78" s="3">
         <v>0</v>
       </c>
-      <c r="E78" s="15"/>
+      <c r="E78" s="16" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
@@ -3371,7 +3373,9 @@
       <c r="D79" s="3">
         <v>0</v>
       </c>
-      <c r="E79" s="15"/>
+      <c r="E79" s="16" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
@@ -3386,7 +3390,9 @@
       <c r="D80" s="3">
         <v>0</v>
       </c>
-      <c r="E80" s="15"/>
+      <c r="E80" s="16" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
@@ -3480,10 +3486,10 @@
         <v>287</v>
       </c>
       <c r="D86" s="3">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3623,7 +3629,7 @@
       <c r="C97" s="18"/>
       <c r="D97">
         <f>COUNTIFS(D3:D94,100%)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -3633,7 +3639,7 @@
       <c r="C98" s="18"/>
       <c r="D98">
         <f>COUNTIFS(D3:D94,"&gt;"&amp; 0%,D3:D94,"&lt;" &amp; 100%)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
@@ -3691,7 +3697,7 @@
   <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3724,7 +3730,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>499</v>
@@ -3738,7 +3744,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>500</v>
@@ -3752,10 +3758,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3816,10 +3822,10 @@
         <v>37</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3846,6 +3852,9 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
+      <c r="D11" s="17" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -4758,6 +4767,9 @@
       <c r="C83" s="1">
         <v>0</v>
       </c>
+      <c r="D83" s="17" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -4769,6 +4781,9 @@
       <c r="C84" s="1">
         <v>0</v>
       </c>
+      <c r="D84" s="17" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -4780,6 +4795,9 @@
       <c r="C85" s="1">
         <v>0</v>
       </c>
+      <c r="D85" s="17" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
@@ -4791,6 +4809,9 @@
       <c r="C86" s="1">
         <v>0</v>
       </c>
+      <c r="D86" s="17" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
@@ -5052,7 +5073,7 @@
       </c>
       <c r="C108">
         <f>COUNTIFS(C2:C105,100%)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5061,7 +5082,7 @@
       </c>
       <c r="C109">
         <f>COUNTIFS(C2:C105,"&gt;"&amp; 0%,C2:C105,"&lt;" &amp; 100%)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,7 +5091,7 @@
       </c>
       <c r="C110">
         <f>COUNTIFS(C2:C105,0%)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5095,9 +5116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B103" sqref="B103:B105"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6570,7 +6589,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:B88"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6617,10 +6636,10 @@
         <v>418</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6645,7 +6664,10 @@
         <v>420</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>0.45</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7399,6 +7421,9 @@
       <c r="C69" s="3">
         <v>0</v>
       </c>
+      <c r="D69" s="17" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
@@ -7410,6 +7435,9 @@
       <c r="C70" s="3">
         <v>0</v>
       </c>
+      <c r="D70" s="17" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -7421,6 +7449,9 @@
       <c r="C71" s="3">
         <v>0</v>
       </c>
+      <c r="D71" s="17" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -7578,7 +7609,7 @@
       </c>
       <c r="C86">
         <f>COUNTIFS(C2:C83,100%)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7587,7 +7618,7 @@
       </c>
       <c r="C87">
         <f>COUNTIFS(C2:C83,"&gt;"&amp; 0%,C2:C83,"&lt;" &amp; 100%)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -7596,7 +7627,7 @@
       </c>
       <c r="C88">
         <f>COUNTIFS(C2:C83,0%)</f>
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -7621,7 +7652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -7753,18 +7784,18 @@
       </c>
       <c r="D8" s="9">
         <f>Daos!C108</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>0.45192307692307693</v>
+        <v>0.48076923076923078</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>9.0384615384615383</v>
+        <v>9.615384615384615</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -7777,18 +7808,18 @@
       </c>
       <c r="D9" s="9">
         <f>Controllers!D97</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>0.34782608695652173</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="F9" s="9">
         <v>40</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>13.913043478260869</v>
+        <v>15.652173913043478</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -7821,18 +7852,18 @@
         <v>83</v>
       </c>
       <c r="D11" s="9">
-        <v>23</v>
+        <v>23.85</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
-        <v>0.27710843373493976</v>
+        <v>0.28734939759036149</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>33.253012048192772</v>
+        <v>34.481927710843379</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -7872,7 +7903,7 @@
       </c>
       <c r="G13" s="12">
         <f>SUM(G4:G12)</f>
-        <v>90.20451706491518</v>
+        <v>93.749486239271477</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
@@ -7881,7 +7912,7 @@
       </c>
       <c r="C16" s="19">
         <f>G13/F13</f>
-        <v>0.42151643488278123</v>
+        <v>0.43808171139846486</v>
       </c>
       <c r="D16" s="19"/>
     </row>

--- a/Avances/Avance Migracion Sipro.xlsx
+++ b/Avances/Avance Migracion Sipro.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="504">
   <si>
     <t>Controllers</t>
   </si>
@@ -6589,7 +6589,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6678,7 +6678,10 @@
         <v>421</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7609,7 +7612,7 @@
       </c>
       <c r="C86">
         <f>COUNTIFS(C2:C83,100%)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7627,7 +7630,7 @@
       </c>
       <c r="C88">
         <f>COUNTIFS(C2:C83,0%)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -7852,18 +7855,18 @@
         <v>83</v>
       </c>
       <c r="D11" s="9">
-        <v>23.85</v>
+        <v>24.85</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
-        <v>0.28734939759036149</v>
+        <v>0.29939759036144581</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>34.481927710843379</v>
+        <v>35.927710843373497</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -7903,7 +7906,7 @@
       </c>
       <c r="G13" s="12">
         <f>SUM(G4:G12)</f>
-        <v>93.749486239271477</v>
+        <v>95.195269371801587</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
@@ -7912,7 +7915,7 @@
       </c>
       <c r="C16" s="19">
         <f>G13/F13</f>
-        <v>0.43808171139846486</v>
+        <v>0.44483770734486722</v>
       </c>
       <c r="D16" s="19"/>
     </row>

--- a/Avances/Avance Migracion Sipro.xlsx
+++ b/Avances/Avance Migracion Sipro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="504">
   <si>
     <t>Controllers</t>
   </si>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3552,9 +3552,11 @@
         <v>291</v>
       </c>
       <c r="D90" s="3">
-        <v>0</v>
-      </c>
-      <c r="E90" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
@@ -3629,7 +3631,7 @@
       <c r="C97" s="18"/>
       <c r="D97">
         <f>COUNTIFS(D3:D94,100%)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -3649,7 +3651,7 @@
       <c r="C99" s="18"/>
       <c r="D99">
         <f>COUNTIFS(D3:D94,0%)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3696,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6588,8 +6590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7560,6 +7562,9 @@
       </c>
       <c r="C79" s="3">
         <v>0</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -7655,7 +7660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -7811,18 +7816,18 @@
       </c>
       <c r="D9" s="9">
         <f>Controllers!D97</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>0.39130434782608697</v>
+        <v>0.40217391304347827</v>
       </c>
       <c r="F9" s="9">
         <v>40</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>15.652173913043478</v>
+        <v>16.086956521739133</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -7906,7 +7911,7 @@
       </c>
       <c r="G13" s="12">
         <f>SUM(G4:G12)</f>
-        <v>95.195269371801587</v>
+        <v>95.630051980497242</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
@@ -7915,7 +7920,7 @@
       </c>
       <c r="C16" s="19">
         <f>G13/F13</f>
-        <v>0.44483770734486722</v>
+        <v>0.44686940177802448</v>
       </c>
       <c r="D16" s="19"/>
     </row>

--- a/Avances/Avance Migracion Sipro.xlsx
+++ b/Avances/Avance Migracion Sipro.xlsx
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3698,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3732,7 +3732,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>499</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="C108">
         <f>COUNTIFS(C2:C105,100%)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,7 +5084,7 @@
       </c>
       <c r="C109">
         <f>COUNTIFS(C2:C105,"&gt;"&amp; 0%,C2:C105,"&lt;" &amp; 100%)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -6591,7 +6591,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6624,7 +6624,7 @@
         <v>417</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>499</v>
@@ -6652,7 +6652,7 @@
         <v>419</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>499</v>
@@ -7519,7 +7519,7 @@
         <v>470</v>
       </c>
       <c r="C76" s="3">
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>500</v>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="C86">
         <f>COUNTIFS(C2:C83,100%)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="C88">
         <f>COUNTIFS(C2:C83,0%)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7792,18 +7792,18 @@
       </c>
       <c r="D8" s="9">
         <f>Daos!C108</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>0.48076923076923078</v>
+        <v>0.49038461538461536</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>9.615384615384615</v>
+        <v>9.8076923076923066</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -7860,18 +7860,18 @@
         <v>83</v>
       </c>
       <c r="D11" s="9">
-        <v>24.85</v>
+        <v>27</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
-        <v>0.29939759036144581</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>35.927710843373497</v>
+        <v>39.036144578313255</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="G13" s="12">
         <f>SUM(G4:G12)</f>
-        <v>95.630051980497242</v>
+        <v>98.930793407744687</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="C16" s="19">
         <f>G13/F13</f>
-        <v>0.44686940177802448</v>
+        <v>0.46229342713899385</v>
       </c>
       <c r="D16" s="19"/>
     </row>

--- a/Avances/Avance Migracion Sipro.xlsx
+++ b/Avances/Avance Migracion Sipro.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="504">
   <si>
     <t>Controllers</t>
   </si>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,9 +2790,11 @@
         <v>243</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -2880,9 +2882,11 @@
         <v>249</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -3631,7 +3635,7 @@
       <c r="C97" s="18"/>
       <c r="D97">
         <f>COUNTIFS(D3:D94,100%)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -3641,7 +3645,7 @@
       <c r="C98" s="18"/>
       <c r="D98">
         <f>COUNTIFS(D3:D94,"&gt;"&amp; 0%,D3:D94,"&lt;" &amp; 100%)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
@@ -3651,7 +3655,7 @@
       <c r="C99" s="18"/>
       <c r="D99">
         <f>COUNTIFS(D3:D94,0%)</f>
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3699,7 +3703,7 @@
   <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3813,7 +3817,10 @@
         <v>36</v>
       </c>
       <c r="C8" s="3">
-        <v>0.05</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5075,7 +5082,7 @@
       </c>
       <c r="C108">
         <f>COUNTIFS(C2:C105,100%)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,7 +5091,7 @@
       </c>
       <c r="C109">
         <f>COUNTIFS(C2:C105,"&gt;"&amp; 0%,C2:C105,"&lt;" &amp; 100%)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -7792,18 +7799,18 @@
       </c>
       <c r="D8" s="9">
         <f>Daos!C108</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>0.49038461538461536</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>9.8076923076923066</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -7816,18 +7823,18 @@
       </c>
       <c r="D9" s="9">
         <f>Controllers!D97</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>0.40217391304347827</v>
+        <v>0.41304347826086957</v>
       </c>
       <c r="F9" s="9">
         <v>40</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>16.086956521739133</v>
+        <v>16.521739130434781</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -7911,7 +7918,7 @@
       </c>
       <c r="G13" s="12">
         <f>SUM(G4:G12)</f>
-        <v>98.930793407744687</v>
+        <v>99.557883708748037</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
@@ -7920,7 +7927,7 @@
       </c>
       <c r="C16" s="19">
         <f>G13/F13</f>
-        <v>0.46229342713899385</v>
+        <v>0.46522375564835533</v>
       </c>
       <c r="D16" s="19"/>
     </row>

--- a/Avances/Avance Migracion Sipro.xlsx
+++ b/Avances/Avance Migracion Sipro.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="504">
   <si>
     <t>Controllers</t>
   </si>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,9 +2448,11 @@
         <v>222</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -2478,9 +2480,11 @@
         <v>224</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -3645,7 +3649,7 @@
       <c r="C98" s="18"/>
       <c r="D98">
         <f>COUNTIFS(D3:D94,"&gt;"&amp; 0%,D3:D94,"&lt;" &amp; 100%)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
@@ -3655,7 +3659,7 @@
       <c r="C99" s="18"/>
       <c r="D99">
         <f>COUNTIFS(D3:D94,0%)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3702,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4950,10 +4954,10 @@
         <v>107</v>
       </c>
       <c r="C96" s="1">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -6597,8 +6601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7526,7 +7530,7 @@
         <v>470</v>
       </c>
       <c r="C76" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>500</v>
@@ -7867,18 +7871,18 @@
         <v>83</v>
       </c>
       <c r="D11" s="9">
-        <v>27</v>
+        <v>27.45</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
-        <v>0.3253012048192771</v>
+        <v>0.33072289156626505</v>
       </c>
       <c r="F11" s="9">
         <v>120</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>39.036144578313255</v>
+        <v>39.686746987951807</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -7918,7 +7922,7 @@
       </c>
       <c r="G13" s="12">
         <f>SUM(G4:G12)</f>
-        <v>99.557883708748037</v>
+        <v>100.20848611838659</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
@@ -7927,7 +7931,7 @@
       </c>
       <c r="C16" s="19">
         <f>G13/F13</f>
-        <v>0.46522375564835533</v>
+        <v>0.46826395382423641</v>
       </c>
       <c r="D16" s="19"/>
     </row>

--- a/Avances/Avance Migracion Sipro.xlsx
+++ b/Avances/Avance Migracion Sipro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\git\SiproDesaCSharp\Avances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtlopez\Desktop\Proyecto\Calendarizacion y Avances Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="FluentValidation" sheetId="5" r:id="rId3"/>
     <sheet name="Vistas" sheetId="3" r:id="rId4"/>
     <sheet name="Avance" sheetId="4" r:id="rId5"/>
+    <sheet name="Avances Individuales" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="512">
   <si>
     <t>Controllers</t>
   </si>
@@ -1540,6 +1541,30 @@
   </si>
   <si>
     <t>Rafa</t>
+  </si>
+  <si>
+    <t>Pedro Peña</t>
+  </si>
+  <si>
+    <t>Enner Escobedo</t>
+  </si>
+  <si>
+    <t>Ronald Lopez</t>
+  </si>
+  <si>
+    <t>Capacitaciones a desarrolladores</t>
+  </si>
+  <si>
+    <t>Instalación de ambiente pre producción</t>
+  </si>
+  <si>
+    <t>Migración</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>Los porcentajes son de las actividades completas (100%)</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1658,16 +1683,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1849,7 +1878,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2111,13 +2140,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
@@ -3402,7 +3431,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -3417,7 +3446,7 @@
       </c>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -3432,7 +3461,7 @@
       </c>
       <c r="E82" s="15"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -3449,7 +3478,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -3466,7 +3495,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -3483,7 +3512,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -3500,7 +3529,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -3511,13 +3540,16 @@
         <v>288</v>
       </c>
       <c r="D87" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -3528,13 +3560,16 @@
         <v>289</v>
       </c>
       <c r="D88" s="3">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -3549,7 +3584,7 @@
       </c>
       <c r="E89" s="15"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -3566,7 +3601,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -3583,7 +3618,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -3600,7 +3635,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -3615,7 +3650,7 @@
       </c>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -3633,30 +3668,30 @@
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="18"/>
+      <c r="C97" s="19"/>
       <c r="D97">
         <f>COUNTIFS(D3:D94,100%)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C98" s="18"/>
+      <c r="C98" s="19"/>
       <c r="D98">
         <f>COUNTIFS(D3:D94,"&gt;"&amp; 0%,D3:D94,"&lt;" &amp; 100%)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C99" s="18"/>
+      <c r="C99" s="19"/>
       <c r="D99">
         <f>COUNTIFS(D3:D94,0%)</f>
         <v>47</v>
@@ -3706,11 +3741,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
@@ -4954,7 +4989,7 @@
         <v>107</v>
       </c>
       <c r="C96" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>500</v>
@@ -5086,7 +5121,7 @@
       </c>
       <c r="C108">
         <f>COUNTIFS(C2:C105,100%)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5095,7 +5130,7 @@
       </c>
       <c r="C109">
         <f>COUNTIFS(C2:C105,"&gt;"&amp; 0%,C2:C105,"&lt;" &amp; 100%)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5131,7 +5166,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -6601,11 +6636,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
@@ -7530,7 +7565,7 @@
         <v>470</v>
       </c>
       <c r="C76" s="3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>500</v>
@@ -7628,7 +7663,7 @@
       </c>
       <c r="C86">
         <f>COUNTIFS(C2:C83,100%)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7637,7 +7672,7 @@
       </c>
       <c r="C87">
         <f>COUNTIFS(C2:C83,"&gt;"&amp; 0%,C2:C83,"&lt;" &amp; 100%)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -7672,10 +7707,10 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -7803,18 +7838,18 @@
       </c>
       <c r="D8" s="9">
         <f>Daos!C108</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.50961538461538458</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>10.192307692307692</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -7827,18 +7862,18 @@
       </c>
       <c r="D9" s="9">
         <f>Controllers!D97</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>0.41304347826086957</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="F9" s="9">
         <v>40</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>16.521739130434781</v>
+        <v>17.391304347826086</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -7922,18 +7957,18 @@
       </c>
       <c r="G13" s="12">
         <f>SUM(G4:G12)</f>
-        <v>100.20848611838659</v>
+        <v>101.27035902808558</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B16" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="20">
         <f>G13/F13</f>
-        <v>0.46826395382423641</v>
-      </c>
-      <c r="D16" s="19"/>
+        <v>0.47322597676675504</v>
+      </c>
+      <c r="D16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7941,4 +7976,871 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <f>D7/C7</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" ref="G7:G17" si="0">F7*E7</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" ref="E8:E15" si="1">D8/C8</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="9">
+        <v>101</v>
+      </c>
+      <c r="D10" s="9">
+        <v>101</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="9">
+        <f>Daos!$A$105</f>
+        <v>104</v>
+      </c>
+      <c r="D11" s="9">
+        <v>47</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.45192307692307693</v>
+      </c>
+      <c r="F11" s="9">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>9.0384615384615383</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="9">
+        <f>Controllers!$A$94</f>
+        <v>92</v>
+      </c>
+      <c r="D12" s="9">
+        <v>34</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.36956521739130432</v>
+      </c>
+      <c r="F12" s="9">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>14.782608695652172</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="9">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>8</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="9">
+        <v>83</v>
+      </c>
+      <c r="D14" s="9">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.27710843373493976</v>
+      </c>
+      <c r="F14" s="9">
+        <v>120</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>33.253012048192772</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" s="9">
+        <f>FluentValidation!C103</f>
+        <v>100</v>
+      </c>
+      <c r="D15" s="9">
+        <f>FluentValidation!C103</f>
+        <v>100</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="9">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9">
+        <v>15</v>
+      </c>
+      <c r="E16" s="11">
+        <f>D16/C16</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>7</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11">
+        <f>D17/C17</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>10</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
+        <f>SUM(F7:F17)</f>
+        <v>231</v>
+      </c>
+      <c r="G18" s="12">
+        <f>SUM(G7:G17)</f>
+        <v>108.07408228230648</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B21" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="20">
+        <f>((SUM(G7:G15)/SUM(F7:F15)))</f>
+        <v>0.4255798237490957</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
+        <f>G18/F18</f>
+        <v>0.46785317005327481</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="J21" s="18">
+        <f>C21+C40+C59</f>
+        <v>0.46522375564835527</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f>D28/C28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>3</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" ref="G28:G36" si="2">F28*E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" ref="E29:E36" si="3">D29/C29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>5</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="9">
+        <v>101</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>8</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" s="9">
+        <v>104</v>
+      </c>
+      <c r="D32" s="9">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="3"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="F32" s="9">
+        <v>20</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="2"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C33" s="9">
+        <v>92</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" si="3"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="F33" s="9">
+        <v>40</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" si="2"/>
+        <v>0.86956521739130432</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="9">
+        <v>12</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>8</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="9">
+        <v>83</v>
+      </c>
+      <c r="D35" s="9">
+        <v>3</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="3"/>
+        <v>3.614457831325301E-2</v>
+      </c>
+      <c r="F35" s="9">
+        <v>120</v>
+      </c>
+      <c r="G35" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3373493975903612</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" s="9">
+        <v>100</v>
+      </c>
+      <c r="D36" s="9">
+        <f>FluentValidation!C122</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>5</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9">
+        <f>SUM(F28:F36)</f>
+        <v>214</v>
+      </c>
+      <c r="G37" s="12">
+        <f>SUM(G28:G36)</f>
+        <v>5.976145384212435</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B40" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="20">
+        <f>G37/F37</f>
+        <v>2.792591301033848E-2</v>
+      </c>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <f>D47/C47</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>3</v>
+      </c>
+      <c r="G47" s="12">
+        <f t="shared" ref="G47:G55" si="4">F47*E47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" ref="E48:E55" si="5">D48/C48</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <v>5</v>
+      </c>
+      <c r="G48" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
+        <v>5</v>
+      </c>
+      <c r="G49" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C50" s="9">
+        <v>101</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
+        <v>8</v>
+      </c>
+      <c r="G50" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C51" s="9">
+        <v>104</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="11">
+        <f t="shared" si="5"/>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="F51" s="9">
+        <v>20</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="4"/>
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C52" s="9">
+        <v>92</v>
+      </c>
+      <c r="D52" s="9">
+        <v>2</v>
+      </c>
+      <c r="E52" s="11">
+        <f t="shared" si="5"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="F52" s="9">
+        <v>40</v>
+      </c>
+      <c r="G52" s="12">
+        <f t="shared" si="4"/>
+        <v>0.86956521739130432</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C53" s="9">
+        <v>12</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
+        <v>8</v>
+      </c>
+      <c r="G53" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C54" s="9">
+        <v>83</v>
+      </c>
+      <c r="D54" s="9">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="F54" s="9">
+        <v>120</v>
+      </c>
+      <c r="G54" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4457831325301205</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="9">
+        <v>100</v>
+      </c>
+      <c r="D55" s="9">
+        <f>FluentValidation!C141</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>5</v>
+      </c>
+      <c r="G55" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9">
+        <f>SUM(F47:F55)</f>
+        <v>214</v>
+      </c>
+      <c r="G56" s="12">
+        <f>SUM(G47:G55)</f>
+        <v>2.507656042229117</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B59" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C59" s="20">
+        <f>G56/F56</f>
+        <v>1.1718018888921107E-2</v>
+      </c>
+      <c r="D59" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C58:D58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>